--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -575,7 +575,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44298</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>45463.63518518519</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44711</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44709</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45019</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -575,7 +575,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44298</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>45463.63518518519</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44711</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44709</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45019</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -575,7 +575,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44298</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>45463.63518518519</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44711</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44709</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45019</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -575,7 +575,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44298</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>45463.63518518519</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44711</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44709</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45019</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -575,7 +575,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44298</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>45463.63518518519</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44711</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44709</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45019</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -575,7 +575,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44298</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>45463.63518518519</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44711</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -907,14 +907,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 21888-2022</t>
+          <t>A 21472-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44709</v>
+        <v>44706</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -964,14 +964,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 21472-2022</t>
+          <t>A 21888-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44706</v>
+        <v>44709</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>45019</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -575,7 +575,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44298</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>45463.63518518519</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44711</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -907,14 +907,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 21472-2022</t>
+          <t>A 21888-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44706</v>
+        <v>44709</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -964,14 +964,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 21888-2022</t>
+          <t>A 21472-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44709</v>
+        <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>45019</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -575,7 +575,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44298</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>45463.63518518519</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44711</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44709</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45019</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -575,7 +575,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44298</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>45463.63518518519</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44711</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44709</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45019</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -575,7 +575,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44298</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>45463.63518518519</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44711</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44709</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45019</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -575,7 +575,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44298</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>45463.63518518519</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44711</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44709</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45019</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -575,7 +575,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44298</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>45463.63518518519</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44711</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44709</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45019</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -575,7 +575,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44298</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>45463.63518518519</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44711</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44709</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45019</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -575,7 +575,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44298</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>45463.63518518519</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44711</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -907,14 +907,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 21888-2022</t>
+          <t>A 21472-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44709</v>
+        <v>44706</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -964,14 +964,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 21472-2022</t>
+          <t>A 21888-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44706</v>
+        <v>44709</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>45019</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -575,7 +575,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44298</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>45463.63518518519</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44711</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -907,14 +907,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 21472-2022</t>
+          <t>A 21888-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44706</v>
+        <v>44709</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -964,14 +964,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 21888-2022</t>
+          <t>A 21472-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44709</v>
+        <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>45019</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -575,7 +575,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44298</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>45463.63518518519</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44711</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -907,14 +907,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 21888-2022</t>
+          <t>A 21472-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44709</v>
+        <v>44706</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -964,14 +964,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 21472-2022</t>
+          <t>A 21888-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44706</v>
+        <v>44709</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>45019</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -575,7 +575,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44298</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>45463.63518518519</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44711</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -907,14 +907,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 21472-2022</t>
+          <t>A 21888-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44706</v>
+        <v>44709</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -964,14 +964,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 21888-2022</t>
+          <t>A 21472-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44709</v>
+        <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>45019</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>

--- a/Översikt NACKA.xlsx
+++ b/Översikt NACKA.xlsx
@@ -575,7 +575,7 @@
         <v>44709</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44298</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>45463.63518518519</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44711</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44709</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44706</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45019</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
